--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_15.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_15.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_0</t>
+          <t>model_1_15_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9983899760780055</v>
+        <v>0.9472433517372157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8237692496504458</v>
+        <v>0.7161387258695515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8057842852478374</v>
+        <v>0.7738611001619315</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998271356238312</v>
+        <v>0.9588294430762671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006701767557841421</v>
+        <v>0.1693639920780249</v>
       </c>
       <c r="G2" t="n">
-        <v>1.178455839055459</v>
+        <v>1.898181647171291</v>
       </c>
       <c r="H2" t="n">
-        <v>0.694698350394312</v>
+        <v>0.8088857324339731</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007438988947224424</v>
+        <v>0.1585533127196662</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2318163444799304</v>
+        <v>1.199410637843451</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0818643240846794</v>
+        <v>0.4115385669387802</v>
       </c>
       <c r="L2" t="n">
-        <v>1.103041531007648</v>
+        <v>0.9281611598123789</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08315360535471196</v>
+        <v>0.4180198879804267</v>
       </c>
       <c r="N2" t="n">
-        <v>140.01076794555</v>
+        <v>37.55141016176292</v>
       </c>
       <c r="O2" t="n">
-        <v>281.3459404887664</v>
+        <v>74.51599374998874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_1</t>
+          <t>model_1_15_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9984209711625514</v>
+        <v>0.9472466221931699</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8236423546105034</v>
+        <v>0.716136812997249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8058620386390041</v>
+        <v>0.7738791361717915</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998438770590129</v>
+        <v>0.9590646569577839</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00657274969094886</v>
+        <v>0.1693534929751716</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179304386771853</v>
+        <v>1.898194438557187</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6944202310225092</v>
+        <v>0.8088212186724922</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006718543508797595</v>
+        <v>0.1576474726509677</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2279172431045128</v>
+        <v>1.196880528983137</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08107249651360725</v>
+        <v>0.4115258108249975</v>
       </c>
       <c r="L3" t="n">
-        <v>1.101057845596713</v>
+        <v>0.9281656131992101</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08234930729093258</v>
+        <v>0.4180069309706033</v>
       </c>
       <c r="N3" t="n">
-        <v>140.0496460236543</v>
+        <v>37.55153414831006</v>
       </c>
       <c r="O3" t="n">
-        <v>281.3848185668708</v>
+        <v>74.51611773653588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_3</t>
+          <t>model_1_15_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9986447079099924</v>
+        <v>0.9472488976203564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8236095437569573</v>
+        <v>0.7161340086717458</v>
       </c>
       <c r="D4" t="n">
-        <v>0.805898234437903</v>
+        <v>0.773895759721876</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998242861816452</v>
+        <v>0.9592997028170842</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005641439506663084</v>
+        <v>0.1693461882004243</v>
       </c>
       <c r="G4" t="n">
-        <v>1.179523793100596</v>
+        <v>1.898213191094739</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6942907607486011</v>
+        <v>0.808761757197729</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007561610908999889</v>
+        <v>0.1567422796582633</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2112769440852004</v>
+        <v>1.194313438613161</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07510951675162798</v>
+        <v>0.4115169354964924</v>
       </c>
       <c r="L4" t="n">
-        <v>1.086738693760488</v>
+        <v>0.9281687116532512</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07629241655849503</v>
+        <v>0.4179979158645465</v>
       </c>
       <c r="N4" t="n">
-        <v>140.3552320287208</v>
+        <v>37.55162041676739</v>
       </c>
       <c r="O4" t="n">
-        <v>281.6904045719372</v>
+        <v>74.51620400499321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_2</t>
+          <t>model_1_15_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9986191665856891</v>
+        <v>0.9472500620745838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8234221601694525</v>
+        <v>0.7161302285951827</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8063608037592678</v>
+        <v>0.7739100355712256</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999837138222706</v>
+        <v>0.9595340978939573</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005747755950947959</v>
+        <v>0.1693424499679351</v>
       </c>
       <c r="G5" t="n">
-        <v>1.180776828013062</v>
+        <v>1.898238468484122</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6926361771073895</v>
+        <v>0.8087106933123667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007008540383311279</v>
+        <v>0.1558395929155929</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2126860226821476</v>
+        <v>1.191729064941663</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0758139561752845</v>
+        <v>0.4115123934560599</v>
       </c>
       <c r="L5" t="n">
-        <v>1.0883733385159</v>
+        <v>0.9281702972930503</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07700795019889307</v>
+        <v>0.4179933022915175</v>
       </c>
       <c r="N5" t="n">
-        <v>140.3178915394963</v>
+        <v>37.55166456625536</v>
       </c>
       <c r="O5" t="n">
-        <v>281.6530640827127</v>
+        <v>74.51624815448119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_4</t>
+          <t>model_1_15_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9987657589367093</v>
+        <v>0.9472500205333445</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8232786183180643</v>
+        <v>0.7161254628961685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8054946852244348</v>
+        <v>0.7739224833239005</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997198494324918</v>
+        <v>0.9597676781097564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005137561376274876</v>
+        <v>0.1693425833272433</v>
       </c>
       <c r="G6" t="n">
-        <v>1.181736693034245</v>
+        <v>1.898270336735374</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6957342328860487</v>
+        <v>0.8086661684228108</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001205590776677171</v>
+        <v>0.1549400443117367</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2069059706761103</v>
+        <v>1.189124128224665</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07167678408156211</v>
+        <v>0.4115125554916195</v>
       </c>
       <c r="L6" t="n">
-        <v>1.078991428050607</v>
+        <v>0.9281702407262563</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07280562178034938</v>
+        <v>0.4179934668789752</v>
       </c>
       <c r="N6" t="n">
-        <v>140.5423535050219</v>
+        <v>37.55166299123084</v>
       </c>
       <c r="O6" t="n">
-        <v>281.8775260482383</v>
+        <v>74.51624657945666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_5</t>
+          <t>model_1_15_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9987798152091456</v>
+        <v>0.9472487527924379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8232599999861345</v>
+        <v>0.7161197335201951</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8055522849265998</v>
+        <v>0.7739324233141923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996871154124503</v>
+        <v>0.960000117821167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005079051767000843</v>
+        <v>0.1693466531396355</v>
       </c>
       <c r="G7" t="n">
-        <v>1.181861193905589</v>
+        <v>1.89830864909889</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6955282020912272</v>
+        <v>0.8086306136538907</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001346457286413728</v>
+        <v>0.1540448879425862</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2063099315845258</v>
+        <v>1.186510852420621</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07126746639947883</v>
+        <v>0.4115175004050684</v>
       </c>
       <c r="L7" t="n">
-        <v>1.078091826614681</v>
+        <v>0.9281685144407665</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07238985775394086</v>
+        <v>0.4179984896698677</v>
       </c>
       <c r="N7" t="n">
-        <v>140.5652613897082</v>
+        <v>37.55161492578377</v>
       </c>
       <c r="O7" t="n">
-        <v>281.9004339329246</v>
+        <v>74.51619851400959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_9</t>
+          <t>model_1_15_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9988975732257571</v>
+        <v>0.9472462107813058</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8230104640580747</v>
+        <v>0.7161129226586747</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8062350238750891</v>
+        <v>0.7739399045192561</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9995956398580647</v>
+        <v>0.9602314260899213</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004588880879089318</v>
+        <v>0.1693548137254084</v>
       </c>
       <c r="G8" t="n">
-        <v>1.183529841805532</v>
+        <v>1.898354193361238</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6930860844599602</v>
+        <v>0.8086038538171626</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001740110191134431</v>
+        <v>0.1531540889102005</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1943763170573379</v>
+        <v>1.183884274440257</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06774127898917556</v>
+        <v>0.4115274155210178</v>
       </c>
       <c r="L8" t="n">
-        <v>1.070555313551544</v>
+        <v>0.9281650529787994</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06880813641681953</v>
+        <v>0.4180085609389819</v>
       </c>
       <c r="N8" t="n">
-        <v>140.7682382036596</v>
+        <v>37.55151855081557</v>
       </c>
       <c r="O8" t="n">
-        <v>282.103410746876</v>
+        <v>74.51610213904139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_7</t>
+          <t>model_1_15_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9988736165472256</v>
+        <v>0.9472422731138463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8229200111775139</v>
+        <v>0.716105093156284</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8061970468313213</v>
+        <v>0.7739446413242143</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996155639844814</v>
+        <v>0.9604610665279827</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004688601193044088</v>
+        <v>0.1693674547688099</v>
       </c>
       <c r="G9" t="n">
-        <v>1.184134700634339</v>
+        <v>1.898406549279775</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6932219261434817</v>
+        <v>0.808586910540483</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001654369358071242</v>
+        <v>0.152269712916539</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1956651966673957</v>
+        <v>1.181264509659036</v>
       </c>
       <c r="K9" t="n">
-        <v>0.06847336119283241</v>
+        <v>0.4115427739236954</v>
       </c>
       <c r="L9" t="n">
-        <v>1.07208854097756</v>
+        <v>0.9281596910486418</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06955174818337026</v>
+        <v>0.4180241612211489</v>
       </c>
       <c r="N9" t="n">
-        <v>140.725241988185</v>
+        <v>37.55136927166173</v>
       </c>
       <c r="O9" t="n">
-        <v>282.0604145314015</v>
+        <v>74.51595285988755</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_6</t>
+          <t>model_1_15_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9988485982962638</v>
+        <v>0.9472371082694073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8229161020821161</v>
+        <v>0.7160962438154176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8061680630485948</v>
+        <v>0.7739473875363223</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996084305051792</v>
+        <v>0.9606898594718238</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00479274033058069</v>
+        <v>0.1693840354027482</v>
       </c>
       <c r="G10" t="n">
-        <v>1.184160840773264</v>
+        <v>1.898465724862897</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6933255994537184</v>
+        <v>0.8085770874990069</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001685067339262857</v>
+        <v>0.1513886007362958</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1970934750008569</v>
+        <v>1.178617176668624</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06922962032671195</v>
+        <v>0.4115629179150476</v>
       </c>
       <c r="L10" t="n">
-        <v>1.073689709039115</v>
+        <v>0.9281526580689802</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07031991764262663</v>
+        <v>0.4180446224602283</v>
       </c>
       <c r="N10" t="n">
-        <v>140.6813058741516</v>
+        <v>37.55117348643942</v>
       </c>
       <c r="O10" t="n">
-        <v>282.016478417368</v>
+        <v>74.51575707466525</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_15_8</t>
+          <t>model_1_15_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9988872372626937</v>
+        <v>0.9472305152406787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8228864019184775</v>
+        <v>0.7160863174750232</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8062018920905345</v>
+        <v>0.7739472972224868</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9995910335653969</v>
+        <v>0.9609168086837356</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004631904601278186</v>
+        <v>0.1694052009184156</v>
       </c>
       <c r="G11" t="n">
-        <v>1.184359445904271</v>
+        <v>1.898532102346822</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6932045949322205</v>
+        <v>0.8085774105463599</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001759932760134511</v>
+        <v>0.1505145890139281</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1948622262659715</v>
+        <v>1.17597829650558</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06805809724990984</v>
+        <v>0.4115886306962518</v>
       </c>
       <c r="L11" t="n">
-        <v>1.071216815187604</v>
+        <v>0.9281436803277326</v>
       </c>
       <c r="M11" t="n">
-        <v>0.06912994424845831</v>
+        <v>0.4180707401920331</v>
       </c>
       <c r="N11" t="n">
-        <v>140.749574269005</v>
+        <v>37.5509235904755</v>
       </c>
       <c r="O11" t="n">
-        <v>282.0847468122214</v>
+        <v>74.51550717870131</v>
       </c>
     </row>
   </sheetData>
